--- a/文档/项目内文档/his项目进度把控表.xlsx
+++ b/文档/项目内文档/his项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>项目名称</t>
   </si>
@@ -203,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Header 提示 - vuex </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合并分支、解决冲突</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>个人主页-退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>个人主页-查看投诉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -388,6 +380,42 @@
   </si>
   <si>
     <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录 - vuex   -退出登录</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -889,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="F40" sqref="F40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -960,7 +988,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -1253,15 +1281,15 @@
         <v>42949</v>
       </c>
       <c r="E23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1273,15 +1301,15 @@
         <v>42950</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
@@ -1293,15 +1321,15 @@
         <v>42950</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -1313,7 +1341,7 @@
         <v>42950</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>41</v>
@@ -1321,7 +1349,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -1341,7 +1369,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
@@ -1353,15 +1381,15 @@
         <v>42950</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -1373,15 +1401,15 @@
         <v>42951</v>
       </c>
       <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
@@ -1393,15 +1421,15 @@
         <v>42951</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -1421,7 +1449,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>27</v>
@@ -1441,7 +1469,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>29</v>
@@ -1453,10 +1481,10 @@
         <v>42951</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1473,15 +1501,15 @@
         <v>42952</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
@@ -1493,15 +1521,15 @@
         <v>42952</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -1513,15 +1541,15 @@
         <v>42952</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
@@ -1533,15 +1561,15 @@
         <v>42952</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>29</v>
@@ -1553,15 +1581,15 @@
         <v>42952</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -1573,15 +1601,15 @@
         <v>42953</v>
       </c>
       <c r="E39" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
@@ -1593,15 +1621,15 @@
         <v>42953</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -1613,7 +1641,7 @@
         <v>42953</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>41</v>
@@ -1621,7 +1649,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>27</v>
@@ -1633,7 +1661,7 @@
         <v>42953</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>41</v>
@@ -1641,7 +1669,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>29</v>
@@ -1653,15 +1681,15 @@
         <v>42953</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -1669,13 +1697,19 @@
       <c r="C44" s="3">
         <v>42954</v>
       </c>
-      <c r="D44" s="16"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="4"/>
+      <c r="D44" s="10">
+        <v>42954</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
@@ -1683,13 +1717,19 @@
       <c r="C45" s="3">
         <v>42954</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
+      <c r="D45" s="9">
+        <v>42954</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -1697,13 +1737,19 @@
       <c r="C46" s="3">
         <v>42954</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
+      <c r="D46" s="12">
+        <v>42954</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>27</v>
@@ -1711,13 +1757,19 @@
       <c r="C47" s="3">
         <v>42954</v>
       </c>
-      <c r="D47" s="19"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="D47" s="15">
+        <v>42954</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>29</v>
@@ -1725,13 +1777,19 @@
       <c r="C48" s="3">
         <v>42954</v>
       </c>
-      <c r="D48" s="19"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="D48" s="15">
+        <v>42954</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>21</v>
@@ -1739,9 +1797,15 @@
       <c r="C49" s="3">
         <v>42955</v>
       </c>
-      <c r="D49" s="16"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="4"/>
+      <c r="D49" s="10">
+        <v>42955</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="4" t="s">
@@ -1753,13 +1817,19 @@
       <c r="C50" s="3">
         <v>42955</v>
       </c>
-      <c r="D50" s="17"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
+      <c r="D50" s="9">
+        <v>42955</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -1767,13 +1837,19 @@
       <c r="C51" s="14">
         <v>42955</v>
       </c>
-      <c r="D51" s="18"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
+      <c r="D51" s="12">
+        <v>42955</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>27</v>
@@ -1781,13 +1857,19 @@
       <c r="C52" s="3">
         <v>42955</v>
       </c>
-      <c r="D52" s="19"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
+      <c r="D52" s="15">
+        <v>42955</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>29</v>
@@ -1795,13 +1877,19 @@
       <c r="C53" s="3">
         <v>42955</v>
       </c>
-      <c r="D53" s="19"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
+      <c r="D53" s="15">
+        <v>42955</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -1809,9 +1897,15 @@
       <c r="C54" s="3">
         <v>42956</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="4"/>
+      <c r="D54" s="10">
+        <v>42956</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="4" t="s">
@@ -1823,13 +1917,19 @@
       <c r="C55" s="3">
         <v>42956</v>
       </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
+      <c r="D55" s="9">
+        <v>42956</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -1837,9 +1937,15 @@
       <c r="C56" s="3">
         <v>42956</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
+      <c r="D56" s="12">
+        <v>42956</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4" t="s">
@@ -1851,13 +1957,19 @@
       <c r="C57" s="3">
         <v>42956</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
+      <c r="D57" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -1865,13 +1977,19 @@
       <c r="C58" s="3">
         <v>42956</v>
       </c>
-      <c r="D58" s="19"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
+      <c r="D58" s="15">
+        <v>42956</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>17</v>
@@ -1885,7 +2003,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>20</v>
@@ -1913,7 +2031,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>

--- a/文档/项目内文档/his项目进度把控表.xlsx
+++ b/文档/项目内文档/his项目进度把控表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10350"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="10320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -207,223 +207,223 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>护士系统查看投诉信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 医院基本介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 医生护士人数介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 优秀医护人员介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药库系统、登录模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药库系统、登录模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护士系统、登录页面模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统、前台收银系统测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者模块、个人主页模块测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医院基本信息模块 优秀医护人员介绍、 今周患者就诊数量统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统模块 - 轮班</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>医生系统 查看科室投诉信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页介绍ajax读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页样式效果设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页样式效果实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 中药房-药师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 中药房-药品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 西药房-药师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>药房系统- 西药房-药品管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台收银系统 收取费用，已收取，找零，挂号医生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台收银系统 患者信息录入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者-删除患者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页 - 个人基本信息展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页-修改密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页-查看投诉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017/8/1 -- 2017/8/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统首页介绍数据读取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>患者-增加患者住院信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分页、验证细化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录模块-vue-router 2.0 登录跳转与路由钩子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录 - vuex   -退出登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进度无异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>指导组员完成任务、并上传分支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护士系统查看投诉信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 医院基本介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 医生护士人数介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 优秀医护人员介绍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药库系统、登录模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药库系统、登录模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护士系统、登录页面模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统、前台收银系统测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者模块、个人主页模块测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院基本信息模块 优秀医护人员介绍、 今周患者就诊数量统计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统模块 - 轮班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医生系统 查看科室投诉信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页介绍ajax读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页样式效果设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页样式效果实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 中药房-药师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 中药房-药品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 西药房-药师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>药房系统- 西药房-药品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台收银系统 收取费用，已收取，找零，挂号医生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>前台收银系统 患者信息录入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者-删除患者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页 - 个人基本信息展示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页-修改密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页-查看投诉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017/8/1 -- 2017/8/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统首页介绍数据读取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>患者-增加患者住院信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分页、验证细化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录模块-vue-router 2.0 登录跳转与路由钩子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>梁明明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人主页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录 - vuex   -退出登录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,6 +442,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -917,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -988,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
@@ -1281,15 +1282,15 @@
         <v>42949</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -1301,15 +1302,15 @@
         <v>42950</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>20</v>
@@ -1321,15 +1322,15 @@
         <v>42950</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -1341,7 +1342,7 @@
         <v>42950</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>41</v>
@@ -1349,7 +1350,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>27</v>
@@ -1369,7 +1370,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>29</v>
@@ -1381,15 +1382,15 @@
         <v>42950</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -1401,15 +1402,15 @@
         <v>42951</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>20</v>
@@ -1421,15 +1422,15 @@
         <v>42951</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -1449,7 +1450,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>27</v>
@@ -1469,7 +1470,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>29</v>
@@ -1481,10 +1482,10 @@
         <v>42951</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1501,15 +1502,15 @@
         <v>42952</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>20</v>
@@ -1521,15 +1522,15 @@
         <v>42952</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>24</v>
@@ -1541,15 +1542,15 @@
         <v>42952</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>27</v>
@@ -1561,15 +1562,15 @@
         <v>42952</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>29</v>
@@ -1581,15 +1582,15 @@
         <v>42952</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>21</v>
@@ -1601,15 +1602,15 @@
         <v>42953</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>20</v>
@@ -1621,15 +1622,15 @@
         <v>42953</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>24</v>
@@ -1641,7 +1642,7 @@
         <v>42953</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>41</v>
@@ -1649,7 +1650,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>27</v>
@@ -1661,7 +1662,7 @@
         <v>42953</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>41</v>
@@ -1669,7 +1670,7 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>29</v>
@@ -1681,15 +1682,15 @@
         <v>42953</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -1701,7 +1702,7 @@
         <v>42954</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>41</v>
@@ -1709,7 +1710,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>20</v>
@@ -1721,7 +1722,7 @@
         <v>42954</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>41</v>
@@ -1729,7 +1730,7 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>24</v>
@@ -1744,12 +1745,12 @@
         <v>38</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>27</v>
@@ -1761,15 +1762,15 @@
         <v>42954</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>29</v>
@@ -1781,10 +1782,10 @@
         <v>42954</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1801,10 +1802,10 @@
         <v>42955</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1821,7 +1822,7 @@
         <v>42955</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>41</v>
@@ -1829,7 +1830,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>24</v>
@@ -1844,12 +1845,12 @@
         <v>38</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>27</v>
@@ -1861,7 +1862,7 @@
         <v>42955</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>41</v>
@@ -1869,7 +1870,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>29</v>
@@ -1881,15 +1882,15 @@
         <v>42955</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>21</v>
@@ -1901,10 +1902,10 @@
         <v>42956</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1929,7 +1930,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>24</v>
@@ -1941,7 +1942,7 @@
         <v>42956</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>41</v>
@@ -1961,7 +1962,7 @@
         <v>42956</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F57" s="4" t="s">
         <v>41</v>
@@ -1969,7 +1970,7 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>29</v>
@@ -1984,12 +1985,12 @@
         <v>38</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>17</v>
@@ -2003,7 +2004,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>20</v>
@@ -2031,7 +2032,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>27</v>

--- a/文档/项目内文档/his项目进度把控表.xlsx
+++ b/文档/项目内文档/his项目进度把控表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="110">
   <si>
     <t>项目名称</t>
   </si>
@@ -419,11 +419,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>指导组员完成任务、并上传分支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梁明明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>进度无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指导组员完成任务、并上传分支</t>
+    <t>进度无异常</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,12 +527,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +567,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -586,14 +596,6 @@
     <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -919,7 +921,7 @@
   <dimension ref="A2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -936,109 +938,109 @@
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.6" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1">
-      <c r="A5" s="22"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="18">
       <c r="A9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8">
       <c r="B10" s="1"/>
@@ -1059,14 +1061,14 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="6" t="s">
@@ -1690,7 +1692,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>21</v>
@@ -1982,10 +1984,10 @@
         <v>42956</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1998,9 +2000,15 @@
       <c r="C59" s="3">
         <v>42957</v>
       </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="4"/>
+      <c r="D59" s="10">
+        <v>42957</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="4" t="s">
@@ -2012,9 +2020,15 @@
       <c r="C60" s="3">
         <v>42957</v>
       </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
+      <c r="D60" s="9">
+        <v>42957</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="4" t="s">
@@ -2026,9 +2040,15 @@
       <c r="C61" s="14">
         <v>42957</v>
       </c>
-      <c r="D61" s="18"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
+      <c r="D61" s="12">
+        <v>42957</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="4" t="s">
@@ -2040,9 +2060,15 @@
       <c r="C62" s="3">
         <v>42957</v>
       </c>
-      <c r="D62" s="19"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
+      <c r="D62" s="15">
+        <v>42957</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="4" t="s">
@@ -2054,9 +2080,15 @@
       <c r="C63" s="3">
         <v>42957</v>
       </c>
-      <c r="D63" s="19"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
+      <c r="D63" s="15">
+        <v>42957</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
